--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H2">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I2">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J2">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.1048695349214</v>
+        <v>149.829178</v>
       </c>
       <c r="N2">
-        <v>56.1048695349214</v>
+        <v>449.487534</v>
       </c>
       <c r="O2">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="P2">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="Q2">
-        <v>499.8797901901999</v>
+        <v>5110.946250342316</v>
       </c>
       <c r="R2">
-        <v>499.8797901901999</v>
+        <v>45998.51625308084</v>
       </c>
       <c r="S2">
-        <v>0.1545352751240062</v>
+        <v>0.4081845769348056</v>
       </c>
       <c r="T2">
-        <v>0.1545352751240062</v>
+        <v>0.4081845769348056</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H3">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I3">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J3">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.860987429622462</v>
+        <v>1.021452666666667</v>
       </c>
       <c r="N3">
-        <v>0.860987429622462</v>
+        <v>3.064358</v>
       </c>
       <c r="O3">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="P3">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="Q3">
-        <v>7.67117398621144</v>
+        <v>34.84361154675867</v>
       </c>
       <c r="R3">
-        <v>7.67117398621144</v>
+        <v>313.5925039208281</v>
       </c>
       <c r="S3">
-        <v>0.002371504121085281</v>
+        <v>0.002782777227825827</v>
       </c>
       <c r="T3">
-        <v>0.002371504121085281</v>
+        <v>0.002782777227825827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.909739819982279</v>
+        <v>34.111822</v>
       </c>
       <c r="H4">
-        <v>8.909739819982279</v>
+        <v>102.335466</v>
       </c>
       <c r="I4">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="J4">
-        <v>0.1683204004050884</v>
+        <v>0.4228853893909983</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.14377704759504</v>
+        <v>4.374661666666667</v>
       </c>
       <c r="N4">
-        <v>4.14377704759504</v>
+        <v>13.123985</v>
       </c>
       <c r="O4">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="P4">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="Q4">
-        <v>36.91997536608613</v>
+        <v>149.2276800835567</v>
       </c>
       <c r="R4">
-        <v>36.91997536608613</v>
+        <v>1343.04912075201</v>
       </c>
       <c r="S4">
-        <v>0.01141362115999686</v>
+        <v>0.01191803522836684</v>
       </c>
       <c r="T4">
-        <v>0.01141362115999686</v>
+        <v>0.01191803522836683</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H5">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I5">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J5">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.1048695349214</v>
+        <v>149.829178</v>
       </c>
       <c r="N5">
-        <v>56.1048695349214</v>
+        <v>449.487534</v>
       </c>
       <c r="O5">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="P5">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="Q5">
-        <v>1948.045082913903</v>
+        <v>5226.358267750054</v>
       </c>
       <c r="R5">
-        <v>1948.045082913903</v>
+        <v>47037.2244097505</v>
       </c>
       <c r="S5">
-        <v>0.6022281531476275</v>
+        <v>0.4174019318415639</v>
       </c>
       <c r="T5">
-        <v>0.6022281531476275</v>
+        <v>0.4174019318415639</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H6">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I6">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J6">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.860987429622462</v>
+        <v>1.021452666666667</v>
       </c>
       <c r="N6">
-        <v>0.860987429622462</v>
+        <v>3.064358</v>
       </c>
       <c r="O6">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="P6">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="Q6">
-        <v>29.89477281794141</v>
+        <v>35.63042700233378</v>
       </c>
       <c r="R6">
-        <v>29.89477281794141</v>
+        <v>320.673843021004</v>
       </c>
       <c r="S6">
-        <v>0.009241815798219102</v>
+        <v>0.002845616067862187</v>
       </c>
       <c r="T6">
-        <v>0.009241815798219102</v>
+        <v>0.002845616067862187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>34.7214974219195</v>
+        <v>34.88211266666666</v>
       </c>
       <c r="H7">
-        <v>34.7214974219195</v>
+        <v>104.646338</v>
       </c>
       <c r="I7">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490296</v>
       </c>
       <c r="J7">
-        <v>0.6559491597739335</v>
+        <v>0.4324347083490295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.14377704759504</v>
+        <v>4.374661666666667</v>
       </c>
       <c r="N7">
-        <v>4.14377704759504</v>
+        <v>13.123985</v>
       </c>
       <c r="O7">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="P7">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="Q7">
-        <v>143.8781440750804</v>
+        <v>152.5974411352145</v>
       </c>
       <c r="R7">
-        <v>143.8781440750804</v>
+        <v>1373.37697021693</v>
       </c>
       <c r="S7">
-        <v>0.04447919082808693</v>
+        <v>0.01218716043960344</v>
       </c>
       <c r="T7">
-        <v>0.04447919082808693</v>
+        <v>0.01218716043960344</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H8">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I8">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J8">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.1048695349214</v>
+        <v>149.829178</v>
       </c>
       <c r="N8">
-        <v>56.1048695349214</v>
+        <v>449.487534</v>
       </c>
       <c r="O8">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="P8">
-        <v>0.9181018744732893</v>
+        <v>0.965236887286734</v>
       </c>
       <c r="Q8">
-        <v>521.8862073541413</v>
+        <v>1748.585367350687</v>
       </c>
       <c r="R8">
-        <v>521.8862073541413</v>
+        <v>15737.26830615619</v>
       </c>
       <c r="S8">
-        <v>0.1613384462016555</v>
+        <v>0.1396503785103644</v>
       </c>
       <c r="T8">
-        <v>0.1613384462016555</v>
+        <v>0.1396503785103644</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H9">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I9">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J9">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.860987429622462</v>
+        <v>1.021452666666667</v>
       </c>
       <c r="N9">
-        <v>0.860987429622462</v>
+        <v>3.064358</v>
       </c>
       <c r="O9">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="P9">
-        <v>0.01408922575860026</v>
+        <v>0.006580452523633729</v>
       </c>
       <c r="Q9">
-        <v>8.008885288389735</v>
+        <v>11.92089024458689</v>
       </c>
       <c r="R9">
-        <v>8.008885288389735</v>
+        <v>107.288012201282</v>
       </c>
       <c r="S9">
-        <v>0.002475905839295877</v>
+        <v>0.000952059227945715</v>
       </c>
       <c r="T9">
-        <v>0.002475905839295877</v>
+        <v>0.0009520592279457148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.30197702410311</v>
+        <v>11.67052633333333</v>
       </c>
       <c r="H10">
-        <v>9.30197702410311</v>
+        <v>35.011579</v>
       </c>
       <c r="I10">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599722</v>
       </c>
       <c r="J10">
-        <v>0.1757304398209781</v>
+        <v>0.1446799022599721</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.14377704759504</v>
+        <v>4.374661666666667</v>
       </c>
       <c r="N10">
-        <v>4.14377704759504</v>
+        <v>13.123985</v>
       </c>
       <c r="O10">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="P10">
-        <v>0.06780889976811046</v>
+        <v>0.02818266018963228</v>
       </c>
       <c r="Q10">
-        <v>38.54531888973488</v>
+        <v>51.05460418025723</v>
       </c>
       <c r="R10">
-        <v>38.54531888973488</v>
+        <v>459.491437622315</v>
       </c>
       <c r="S10">
-        <v>0.01191608778002667</v>
+        <v>0.004077464521662007</v>
       </c>
       <c r="T10">
-        <v>0.01191608778002667</v>
+        <v>0.004077464521662006</v>
       </c>
     </row>
   </sheetData>
